--- a/Team-Data/2008-09/2-4-2008-09.xlsx
+++ b/Team-Data/2008-09/2-4-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,46 +733,46 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E2" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" t="n">
         <v>20</v>
       </c>
       <c r="G2" t="n">
-        <v>0.583</v>
+        <v>0.574</v>
       </c>
       <c r="H2" t="n">
         <v>48.1</v>
       </c>
       <c r="I2" t="n">
-        <v>35.9</v>
+        <v>36</v>
       </c>
       <c r="J2" t="n">
-        <v>78.59999999999999</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="K2" t="n">
         <v>0.457</v>
       </c>
       <c r="L2" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="M2" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="N2" t="n">
-        <v>0.368</v>
+        <v>0.369</v>
       </c>
       <c r="O2" t="n">
-        <v>19</v>
+        <v>18.8</v>
       </c>
       <c r="P2" t="n">
-        <v>25.7</v>
+        <v>25.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.739</v>
+        <v>0.741</v>
       </c>
       <c r="R2" t="n">
         <v>10.5</v>
@@ -720,55 +787,55 @@
         <v>21.3</v>
       </c>
       <c r="V2" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="W2" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="X2" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y2" t="n">
         <v>4.4</v>
       </c>
       <c r="Z2" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AA2" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="AB2" t="n">
-        <v>98.59999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="AD2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG2" t="n">
         <v>11</v>
       </c>
       <c r="AH2" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AI2" t="n">
         <v>23</v>
       </c>
       <c r="AJ2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AM2" t="n">
         <v>3</v>
@@ -780,13 +847,13 @@
         <v>18</v>
       </c>
       <c r="AP2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ2" t="n">
         <v>29</v>
       </c>
       <c r="AR2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS2" t="n">
         <v>19</v>
@@ -795,28 +862,28 @@
         <v>23</v>
       </c>
       <c r="AU2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV2" t="n">
         <v>7</v>
       </c>
       <c r="AW2" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AX2" t="n">
         <v>19</v>
       </c>
       <c r="AY2" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC2" t="n">
         <v>11</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-4-2008-09</t>
+          <t>2009-02-04</t>
         </is>
       </c>
     </row>
@@ -848,25 +915,25 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E3" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3" t="n">
         <v>9</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8159999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="H3" t="n">
         <v>48.4</v>
       </c>
       <c r="I3" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="J3" t="n">
-        <v>77</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="K3" t="n">
         <v>0.484</v>
@@ -875,73 +942,73 @@
         <v>6.6</v>
       </c>
       <c r="M3" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="N3" t="n">
-        <v>0.391</v>
+        <v>0.388</v>
       </c>
       <c r="O3" t="n">
         <v>20.3</v>
       </c>
       <c r="P3" t="n">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.776</v>
+        <v>0.772</v>
       </c>
       <c r="R3" t="n">
         <v>10.9</v>
       </c>
       <c r="S3" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="T3" t="n">
-        <v>42.7</v>
+        <v>42.6</v>
       </c>
       <c r="U3" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="V3" t="n">
         <v>15.8</v>
       </c>
       <c r="W3" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="X3" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="AA3" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.6</v>
+        <v>101.3</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
       </c>
       <c r="AF3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH3" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AI3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ3" t="n">
         <v>28</v>
@@ -950,13 +1017,13 @@
         <v>2</v>
       </c>
       <c r="AL3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AM3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AN3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO3" t="n">
         <v>7</v>
@@ -965,19 +1032,19 @@
         <v>7</v>
       </c>
       <c r="AQ3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AR3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AS3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT3" t="n">
         <v>7</v>
       </c>
       <c r="AU3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV3" t="n">
         <v>26</v>
@@ -986,16 +1053,16 @@
         <v>3</v>
       </c>
       <c r="AX3" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AY3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ3" t="n">
         <v>26</v>
       </c>
       <c r="BA3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BB3" t="n">
         <v>9</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-4-2008-09</t>
+          <t>2009-02-04</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-2.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AE4" t="n">
         <v>21</v>
@@ -1138,10 +1205,10 @@
         <v>25</v>
       </c>
       <c r="AN4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP4" t="n">
         <v>18</v>
@@ -1150,7 +1217,7 @@
         <v>28</v>
       </c>
       <c r="AR4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AS4" t="n">
         <v>27</v>
@@ -1165,7 +1232,7 @@
         <v>25</v>
       </c>
       <c r="AW4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX4" t="n">
         <v>18</v>
@@ -1183,7 +1250,7 @@
         <v>30</v>
       </c>
       <c r="BC4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-4-2008-09</t>
+          <t>2009-02-04</t>
         </is>
       </c>
     </row>
@@ -1227,46 +1294,46 @@
         <v>48.6</v>
       </c>
       <c r="I5" t="n">
-        <v>37.7</v>
+        <v>37.6</v>
       </c>
       <c r="J5" t="n">
-        <v>84.09999999999999</v>
+        <v>84</v>
       </c>
       <c r="K5" t="n">
-        <v>0.449</v>
+        <v>0.448</v>
       </c>
       <c r="L5" t="n">
         <v>6</v>
       </c>
       <c r="M5" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="N5" t="n">
-        <v>0.371</v>
+        <v>0.374</v>
       </c>
       <c r="O5" t="n">
-        <v>18.4</v>
+        <v>18.6</v>
       </c>
       <c r="P5" t="n">
-        <v>23.4</v>
+        <v>23.8</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.785</v>
+        <v>0.784</v>
       </c>
       <c r="R5" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="S5" t="n">
         <v>30.3</v>
       </c>
       <c r="T5" t="n">
-        <v>42.2</v>
+        <v>42.3</v>
       </c>
       <c r="U5" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="V5" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W5" t="n">
         <v>7.4</v>
@@ -1278,31 +1345,31 @@
         <v>5.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="AB5" t="n">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2.2</v>
+        <v>-2.3</v>
       </c>
       <c r="AD5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AE5" t="n">
         <v>19</v>
       </c>
       <c r="AF5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AG5" t="n">
         <v>20</v>
       </c>
       <c r="AH5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI5" t="n">
         <v>8</v>
@@ -1311,34 +1378,34 @@
         <v>5</v>
       </c>
       <c r="AK5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL5" t="n">
         <v>20</v>
       </c>
       <c r="AM5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO5" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AP5" t="n">
         <v>21</v>
       </c>
       <c r="AQ5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AR5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AS5" t="n">
         <v>14</v>
       </c>
       <c r="AT5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU5" t="n">
         <v>13</v>
@@ -1353,19 +1420,19 @@
         <v>4</v>
       </c>
       <c r="AY5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ5" t="n">
         <v>22</v>
       </c>
       <c r="BA5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB5" t="n">
         <v>12</v>
       </c>
       <c r="BC5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-4-2008-09</t>
+          <t>2009-02-04</t>
         </is>
       </c>
     </row>
@@ -1397,43 +1464,43 @@
         <v>47</v>
       </c>
       <c r="E6" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G6" t="n">
-        <v>0.83</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="H6" t="n">
         <v>48.1</v>
       </c>
       <c r="I6" t="n">
-        <v>37.3</v>
+        <v>37.1</v>
       </c>
       <c r="J6" t="n">
-        <v>78.40000000000001</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.476</v>
+        <v>0.475</v>
       </c>
       <c r="L6" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="M6" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="N6" t="n">
-        <v>0.383</v>
+        <v>0.38</v>
       </c>
       <c r="O6" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="P6" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.755</v>
+        <v>0.754</v>
       </c>
       <c r="R6" t="n">
         <v>10.6</v>
@@ -1445,34 +1512,34 @@
         <v>41.7</v>
       </c>
       <c r="U6" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="V6" t="n">
-        <v>12.7</v>
+        <v>13</v>
       </c>
       <c r="W6" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="X6" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Y6" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.3</v>
+        <v>20.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AB6" t="n">
-        <v>101.4</v>
+        <v>100.9</v>
       </c>
       <c r="AC6" t="n">
-        <v>10.6</v>
+        <v>10.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="AE6" t="n">
         <v>2</v>
@@ -1481,25 +1548,25 @@
         <v>1</v>
       </c>
       <c r="AG6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH6" t="n">
         <v>24</v>
       </c>
       <c r="AI6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN6" t="n">
         <v>6</v>
@@ -1514,7 +1581,7 @@
         <v>23</v>
       </c>
       <c r="AR6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS6" t="n">
         <v>10</v>
@@ -1523,25 +1590,25 @@
         <v>13</v>
       </c>
       <c r="AU6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AV6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW6" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AX6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY6" t="n">
         <v>5</v>
       </c>
       <c r="AZ6" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-4-2008-09</t>
+          <t>2009-02-04</t>
         </is>
       </c>
     </row>
@@ -1576,58 +1643,58 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E7" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F7" t="n">
         <v>19</v>
       </c>
       <c r="G7" t="n">
-        <v>0.604</v>
+        <v>0.596</v>
       </c>
       <c r="H7" t="n">
         <v>48.3</v>
       </c>
       <c r="I7" t="n">
-        <v>38</v>
+        <v>37.9</v>
       </c>
       <c r="J7" t="n">
-        <v>82.8</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K7" t="n">
-        <v>0.46</v>
+        <v>0.458</v>
       </c>
       <c r="L7" t="n">
         <v>6.9</v>
       </c>
       <c r="M7" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="N7" t="n">
-        <v>0.343</v>
+        <v>0.342</v>
       </c>
       <c r="O7" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="P7" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.819</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="R7" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="S7" t="n">
-        <v>31.9</v>
+        <v>32</v>
       </c>
       <c r="T7" t="n">
-        <v>43.1</v>
+        <v>43.3</v>
       </c>
       <c r="U7" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="V7" t="n">
         <v>13.4</v>
@@ -1636,7 +1703,7 @@
         <v>7</v>
       </c>
       <c r="X7" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y7" t="n">
         <v>4.2</v>
@@ -1651,10 +1718,10 @@
         <v>100.6</v>
       </c>
       <c r="AC7" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE7" t="n">
         <v>9</v>
@@ -1663,28 +1730,28 @@
         <v>9</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH7" t="n">
         <v>16</v>
       </c>
       <c r="AI7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ7" t="n">
         <v>7</v>
       </c>
       <c r="AK7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL7" t="n">
         <v>13</v>
       </c>
       <c r="AM7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AN7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO7" t="n">
         <v>25</v>
@@ -1696,16 +1763,16 @@
         <v>2</v>
       </c>
       <c r="AR7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS7" t="n">
         <v>4</v>
       </c>
       <c r="AT7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV7" t="n">
         <v>9</v>
@@ -1714,10 +1781,10 @@
         <v>18</v>
       </c>
       <c r="AX7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ7" t="n">
         <v>3</v>
@@ -1729,7 +1796,7 @@
         <v>11</v>
       </c>
       <c r="BC7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-4-2008-09</t>
+          <t>2009-02-04</t>
         </is>
       </c>
     </row>
@@ -1758,67 +1825,67 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E8" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F8" t="n">
         <v>16</v>
       </c>
       <c r="G8" t="n">
-        <v>0.673</v>
+        <v>0.667</v>
       </c>
       <c r="H8" t="n">
         <v>48.2</v>
       </c>
       <c r="I8" t="n">
-        <v>37.1</v>
+        <v>36.9</v>
       </c>
       <c r="J8" t="n">
-        <v>78.5</v>
+        <v>78.2</v>
       </c>
       <c r="K8" t="n">
-        <v>0.472</v>
+        <v>0.471</v>
       </c>
       <c r="L8" t="n">
         <v>6.6</v>
       </c>
       <c r="M8" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="N8" t="n">
-        <v>0.371</v>
+        <v>0.368</v>
       </c>
       <c r="O8" t="n">
-        <v>23.5</v>
+        <v>23.7</v>
       </c>
       <c r="P8" t="n">
-        <v>31.1</v>
+        <v>31.4</v>
       </c>
       <c r="Q8" t="n">
         <v>0.757</v>
       </c>
       <c r="R8" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="S8" t="n">
-        <v>30.7</v>
+        <v>30.8</v>
       </c>
       <c r="T8" t="n">
-        <v>41.2</v>
+        <v>41.3</v>
       </c>
       <c r="U8" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="V8" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="W8" t="n">
         <v>9.1</v>
       </c>
       <c r="X8" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Y8" t="n">
         <v>5.6</v>
@@ -1827,19 +1894,19 @@
         <v>22.5</v>
       </c>
       <c r="AA8" t="n">
-        <v>23.7</v>
+        <v>23.9</v>
       </c>
       <c r="AB8" t="n">
-        <v>104.3</v>
+        <v>104.1</v>
       </c>
       <c r="AC8" t="n">
         <v>3.9</v>
       </c>
       <c r="AD8" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF8" t="n">
         <v>6</v>
@@ -1851,10 +1918,10 @@
         <v>23</v>
       </c>
       <c r="AI8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AJ8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK8" t="n">
         <v>6</v>
@@ -1863,10 +1930,10 @@
         <v>14</v>
       </c>
       <c r="AM8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AN8" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1875,10 +1942,10 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AS8" t="n">
         <v>12</v>
@@ -1890,7 +1957,7 @@
         <v>4</v>
       </c>
       <c r="AV8" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AW8" t="n">
         <v>1</v>
@@ -1908,7 +1975,7 @@
         <v>1</v>
       </c>
       <c r="BB8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC8" t="n">
         <v>6</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-4-2008-09</t>
+          <t>2009-02-04</t>
         </is>
       </c>
     </row>
@@ -1940,37 +2007,37 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F9" t="n">
         <v>21</v>
       </c>
       <c r="G9" t="n">
-        <v>0.553</v>
+        <v>0.543</v>
       </c>
       <c r="H9" t="n">
         <v>48.3</v>
       </c>
       <c r="I9" t="n">
-        <v>35.7</v>
+        <v>35.8</v>
       </c>
       <c r="J9" t="n">
-        <v>78.59999999999999</v>
+        <v>78.7</v>
       </c>
       <c r="K9" t="n">
-        <v>0.455</v>
+        <v>0.454</v>
       </c>
       <c r="L9" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="M9" t="n">
         <v>13.4</v>
       </c>
       <c r="N9" t="n">
-        <v>0.341</v>
+        <v>0.336</v>
       </c>
       <c r="O9" t="n">
         <v>16.9</v>
@@ -1979,34 +2046,34 @@
         <v>22.7</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.742</v>
+        <v>0.744</v>
       </c>
       <c r="R9" t="n">
         <v>10.6</v>
       </c>
       <c r="S9" t="n">
-        <v>29.9</v>
+        <v>29.7</v>
       </c>
       <c r="T9" t="n">
-        <v>40.4</v>
+        <v>40.3</v>
       </c>
       <c r="U9" t="n">
         <v>20</v>
       </c>
       <c r="V9" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="W9" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="X9" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Y9" t="n">
         <v>3.9</v>
       </c>
       <c r="Z9" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="AA9" t="n">
         <v>20.1</v>
@@ -2015,19 +2082,19 @@
         <v>92.90000000000001</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="AD9" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AE9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF9" t="n">
         <v>13</v>
       </c>
-      <c r="AF9" t="n">
-        <v>12</v>
-      </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AH9" t="n">
         <v>15</v>
@@ -2036,7 +2103,7 @@
         <v>24</v>
       </c>
       <c r="AJ9" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AK9" t="n">
         <v>15</v>
@@ -2048,22 +2115,22 @@
         <v>28</v>
       </c>
       <c r="AN9" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AO9" t="n">
         <v>28</v>
       </c>
       <c r="AP9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AQ9" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AR9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AS9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT9" t="n">
         <v>21</v>
@@ -2075,10 +2142,10 @@
         <v>1</v>
       </c>
       <c r="AW9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AX9" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AY9" t="n">
         <v>4</v>
@@ -2087,7 +2154,7 @@
         <v>16</v>
       </c>
       <c r="BA9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB9" t="n">
         <v>29</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-4-2008-09</t>
+          <t>2009-02-04</t>
         </is>
       </c>
     </row>
@@ -2122,61 +2189,61 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10" t="n">
         <v>34</v>
       </c>
       <c r="G10" t="n">
-        <v>0.32</v>
+        <v>0.306</v>
       </c>
       <c r="H10" t="n">
         <v>48.7</v>
       </c>
       <c r="I10" t="n">
-        <v>38.9</v>
+        <v>38.8</v>
       </c>
       <c r="J10" t="n">
-        <v>86.09999999999999</v>
+        <v>86</v>
       </c>
       <c r="K10" t="n">
-        <v>0.452</v>
+        <v>0.451</v>
       </c>
       <c r="L10" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="M10" t="n">
-        <v>18</v>
+        <v>17.8</v>
       </c>
       <c r="N10" t="n">
-        <v>0.366</v>
+        <v>0.362</v>
       </c>
       <c r="O10" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="P10" t="n">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="Q10" t="n">
         <v>0.77</v>
       </c>
       <c r="R10" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="S10" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="T10" t="n">
         <v>42.4</v>
       </c>
       <c r="U10" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="V10" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W10" t="n">
         <v>7.9</v>
@@ -2194,13 +2261,13 @@
         <v>23.7</v>
       </c>
       <c r="AB10" t="n">
-        <v>106.7</v>
+        <v>106.3</v>
       </c>
       <c r="AC10" t="n">
-        <v>-4.5</v>
+        <v>-4.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE10" t="n">
         <v>25</v>
@@ -2212,22 +2279,22 @@
         <v>25</v>
       </c>
       <c r="AH10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI10" t="n">
         <v>3</v>
       </c>
       <c r="AJ10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM10" t="n">
         <v>16</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>16</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>15</v>
       </c>
       <c r="AN10" t="n">
         <v>17</v>
@@ -2242,7 +2309,7 @@
         <v>14</v>
       </c>
       <c r="AR10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS10" t="n">
         <v>13</v>
@@ -2251,10 +2318,10 @@
         <v>10</v>
       </c>
       <c r="AU10" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AV10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW10" t="n">
         <v>7</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-4-2008-09</t>
+          <t>2009-02-04</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E11" t="n">
         <v>30</v>
       </c>
       <c r="F11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6</v>
+        <v>0.612</v>
       </c>
       <c r="H11" t="n">
         <v>48.3</v>
@@ -2325,16 +2392,16 @@
         <v>79.90000000000001</v>
       </c>
       <c r="K11" t="n">
-        <v>0.444</v>
+        <v>0.445</v>
       </c>
       <c r="L11" t="n">
         <v>7.4</v>
       </c>
       <c r="M11" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="N11" t="n">
-        <v>0.368</v>
+        <v>0.37</v>
       </c>
       <c r="O11" t="n">
         <v>19.6</v>
@@ -2343,64 +2410,64 @@
         <v>24.3</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.805</v>
+        <v>0.806</v>
       </c>
       <c r="R11" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="S11" t="n">
-        <v>32.1</v>
+        <v>32.2</v>
       </c>
       <c r="T11" t="n">
         <v>42.8</v>
       </c>
       <c r="U11" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="V11" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="W11" t="n">
         <v>6.7</v>
       </c>
       <c r="X11" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="Y11" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="AA11" t="n">
         <v>21.1</v>
       </c>
       <c r="AB11" t="n">
-        <v>98</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="AC11" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="AD11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE11" t="n">
         <v>7</v>
       </c>
       <c r="AF11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH11" t="n">
         <v>18</v>
       </c>
       <c r="AI11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AJ11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK11" t="n">
         <v>24</v>
@@ -2409,10 +2476,10 @@
         <v>9</v>
       </c>
       <c r="AM11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AN11" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AO11" t="n">
         <v>10</v>
@@ -2424,7 +2491,7 @@
         <v>5</v>
       </c>
       <c r="AR11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS11" t="n">
         <v>3</v>
@@ -2439,13 +2506,13 @@
         <v>14</v>
       </c>
       <c r="AW11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AX11" t="n">
         <v>29</v>
       </c>
       <c r="AY11" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AZ11" t="n">
         <v>2</v>
@@ -2454,7 +2521,7 @@
         <v>14</v>
       </c>
       <c r="BB11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BC11" t="n">
         <v>8</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-4-2008-09</t>
+          <t>2009-02-04</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>-2.3</v>
       </c>
       <c r="AD12" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AE12" t="n">
         <v>21</v>
@@ -2576,7 +2643,7 @@
         <v>22</v>
       </c>
       <c r="AH12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI12" t="n">
         <v>2</v>
@@ -2585,19 +2652,19 @@
         <v>1</v>
       </c>
       <c r="AK12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL12" t="n">
         <v>7</v>
       </c>
       <c r="AM12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN12" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AO12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP12" t="n">
         <v>20</v>
@@ -2606,7 +2673,7 @@
         <v>6</v>
       </c>
       <c r="AR12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS12" t="n">
         <v>2</v>
@@ -2615,22 +2682,22 @@
         <v>2</v>
       </c>
       <c r="AU12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV12" t="n">
         <v>23</v>
       </c>
       <c r="AW12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ12" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA12" t="n">
         <v>12</v>
@@ -2639,7 +2706,7 @@
         <v>3</v>
       </c>
       <c r="BC12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-4-2008-09</t>
+          <t>2009-02-04</t>
         </is>
       </c>
     </row>
@@ -2668,22 +2735,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
       </c>
       <c r="F13" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G13" t="n">
-        <v>0.204</v>
+        <v>0.208</v>
       </c>
       <c r="H13" t="n">
         <v>48.6</v>
       </c>
       <c r="I13" t="n">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="J13" t="n">
         <v>81.90000000000001</v>
@@ -2695,43 +2762,43 @@
         <v>5.7</v>
       </c>
       <c r="M13" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.332</v>
+      </c>
+      <c r="O13" t="n">
         <v>17.2</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0.329</v>
-      </c>
-      <c r="O13" t="n">
-        <v>17.3</v>
       </c>
       <c r="P13" t="n">
         <v>22.8</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.759</v>
+        <v>0.756</v>
       </c>
       <c r="R13" t="n">
         <v>11.8</v>
       </c>
       <c r="S13" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="T13" t="n">
-        <v>40.7</v>
+        <v>40.9</v>
       </c>
       <c r="U13" t="n">
         <v>20.1</v>
       </c>
       <c r="V13" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W13" t="n">
         <v>7</v>
       </c>
       <c r="X13" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Z13" t="n">
         <v>21</v>
@@ -2743,10 +2810,10 @@
         <v>93</v>
       </c>
       <c r="AC13" t="n">
-        <v>-8.800000000000001</v>
+        <v>-8.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE13" t="n">
         <v>29</v>
@@ -2782,10 +2849,10 @@
         <v>27</v>
       </c>
       <c r="AP13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AQ13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR13" t="n">
         <v>11</v>
@@ -2794,25 +2861,25 @@
         <v>23</v>
       </c>
       <c r="AT13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU13" t="n">
         <v>22</v>
       </c>
       <c r="AV13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AW13" t="n">
         <v>19</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>20</v>
       </c>
       <c r="AX13" t="n">
         <v>2</v>
       </c>
       <c r="AY13" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AZ13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA13" t="n">
         <v>26</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-4-2008-09</t>
+          <t>2009-02-04</t>
         </is>
       </c>
     </row>
@@ -2865,46 +2932,46 @@
         <v>48.2</v>
       </c>
       <c r="I14" t="n">
-        <v>40.4</v>
+        <v>40.2</v>
       </c>
       <c r="J14" t="n">
-        <v>84.2</v>
+        <v>84</v>
       </c>
       <c r="K14" t="n">
-        <v>0.48</v>
+        <v>0.479</v>
       </c>
       <c r="L14" t="n">
         <v>7.1</v>
       </c>
       <c r="M14" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="N14" t="n">
-        <v>0.375</v>
+        <v>0.378</v>
       </c>
       <c r="O14" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="P14" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.773</v>
+        <v>0.774</v>
       </c>
       <c r="R14" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="S14" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="T14" t="n">
         <v>44.1</v>
       </c>
       <c r="U14" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="V14" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="W14" t="n">
         <v>8.300000000000001</v>
@@ -2913,34 +2980,34 @@
         <v>5.4</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AA14" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="AB14" t="n">
-        <v>109.1</v>
+        <v>108.7</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD14" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="AE14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG14" t="n">
         <v>2</v>
       </c>
-      <c r="AG14" t="n">
-        <v>3</v>
-      </c>
       <c r="AH14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI14" t="n">
         <v>1</v>
@@ -2958,22 +3025,22 @@
         <v>13</v>
       </c>
       <c r="AN14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO14" t="n">
         <v>4</v>
       </c>
       <c r="AP14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR14" t="n">
         <v>4</v>
       </c>
       <c r="AS14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AT14" t="n">
         <v>1</v>
@@ -2982,28 +3049,28 @@
         <v>2</v>
       </c>
       <c r="AV14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW14" t="n">
         <v>4</v>
       </c>
       <c r="AX14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY14" t="n">
         <v>9</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>11</v>
       </c>
       <c r="AZ14" t="n">
         <v>6</v>
       </c>
       <c r="BA14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB14" t="n">
         <v>1</v>
       </c>
       <c r="BC14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-4-2008-09</t>
+          <t>2009-02-04</t>
         </is>
       </c>
     </row>
@@ -3032,85 +3099,85 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F15" t="n">
         <v>35</v>
       </c>
       <c r="G15" t="n">
-        <v>0.271</v>
+        <v>0.255</v>
       </c>
       <c r="H15" t="n">
         <v>48.5</v>
       </c>
       <c r="I15" t="n">
-        <v>34.8</v>
+        <v>34.7</v>
       </c>
       <c r="J15" t="n">
-        <v>77.09999999999999</v>
+        <v>77.2</v>
       </c>
       <c r="K15" t="n">
-        <v>0.451</v>
+        <v>0.449</v>
       </c>
       <c r="L15" t="n">
         <v>4.6</v>
       </c>
       <c r="M15" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="N15" t="n">
-        <v>0.34</v>
+        <v>0.336</v>
       </c>
       <c r="O15" t="n">
         <v>19.4</v>
       </c>
       <c r="P15" t="n">
-        <v>25.7</v>
+        <v>25.8</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.752</v>
+        <v>0.753</v>
       </c>
       <c r="R15" t="n">
-        <v>10</v>
+        <v>10.1</v>
       </c>
       <c r="S15" t="n">
-        <v>28.2</v>
+        <v>28</v>
       </c>
       <c r="T15" t="n">
-        <v>38.3</v>
+        <v>38.1</v>
       </c>
       <c r="U15" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="V15" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W15" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="X15" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Y15" t="n">
         <v>5.2</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="AA15" t="n">
         <v>21.9</v>
       </c>
       <c r="AB15" t="n">
-        <v>93.5</v>
+        <v>93.3</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.3</v>
+        <v>-6.7</v>
       </c>
       <c r="AD15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE15" t="n">
         <v>26</v>
@@ -3131,19 +3198,19 @@
         <v>27</v>
       </c>
       <c r="AK15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM15" t="n">
         <v>27</v>
       </c>
       <c r="AN15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP15" t="n">
         <v>9</v>
@@ -3155,7 +3222,7 @@
         <v>25</v>
       </c>
       <c r="AS15" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AT15" t="n">
         <v>30</v>
@@ -3170,13 +3237,13 @@
         <v>8</v>
       </c>
       <c r="AX15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AY15" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ15" t="n">
         <v>20</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>19</v>
       </c>
       <c r="BA15" t="n">
         <v>9</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-4-2008-09</t>
+          <t>2009-02-04</t>
         </is>
       </c>
     </row>
@@ -3214,37 +3281,37 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E16" t="n">
         <v>26</v>
       </c>
       <c r="F16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G16" t="n">
-        <v>0.542</v>
+        <v>0.553</v>
       </c>
       <c r="H16" t="n">
         <v>48.3</v>
       </c>
       <c r="I16" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="J16" t="n">
-        <v>81</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K16" t="n">
-        <v>0.448</v>
+        <v>0.449</v>
       </c>
       <c r="L16" t="n">
         <v>7</v>
       </c>
       <c r="M16" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="N16" t="n">
-        <v>0.359</v>
+        <v>0.358</v>
       </c>
       <c r="O16" t="n">
         <v>17.3</v>
@@ -3253,67 +3320,67 @@
         <v>23.3</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.744</v>
+        <v>0.743</v>
       </c>
       <c r="R16" t="n">
         <v>10.4</v>
       </c>
       <c r="S16" t="n">
-        <v>29.4</v>
+        <v>29.6</v>
       </c>
       <c r="T16" t="n">
-        <v>39.8</v>
+        <v>39.9</v>
       </c>
       <c r="U16" t="n">
         <v>19.8</v>
       </c>
       <c r="V16" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="W16" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="X16" t="n">
         <v>5.6</v>
       </c>
       <c r="Y16" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Z16" t="n">
         <v>20.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="AB16" t="n">
-        <v>96.90000000000001</v>
+        <v>97</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="AD16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE16" t="n">
         <v>13</v>
       </c>
       <c r="AF16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH16" t="n">
         <v>16</v>
       </c>
       <c r="AI16" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AJ16" t="n">
         <v>13</v>
       </c>
       <c r="AK16" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AL16" t="n">
         <v>12</v>
@@ -3322,7 +3389,7 @@
         <v>10</v>
       </c>
       <c r="AN16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO16" t="n">
         <v>26</v>
@@ -3331,16 +3398,16 @@
         <v>22</v>
       </c>
       <c r="AQ16" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AR16" t="n">
         <v>24</v>
       </c>
       <c r="AS16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT16" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU16" t="n">
         <v>26</v>
@@ -3352,19 +3419,19 @@
         <v>5</v>
       </c>
       <c r="AX16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA16" t="n">
         <v>25</v>
       </c>
       <c r="BB16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BC16" t="n">
         <v>14</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-4-2008-09</t>
+          <t>2009-02-04</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E17" t="n">
         <v>24</v>
       </c>
       <c r="F17" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G17" t="n">
-        <v>0.471</v>
+        <v>0.462</v>
       </c>
       <c r="H17" t="n">
         <v>48.3</v>
@@ -3414,7 +3481,7 @@
         <v>36.3</v>
       </c>
       <c r="J17" t="n">
-        <v>81.2</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K17" t="n">
         <v>0.447</v>
@@ -3426,31 +3493,31 @@
         <v>16</v>
       </c>
       <c r="N17" t="n">
-        <v>0.35</v>
+        <v>0.351</v>
       </c>
       <c r="O17" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="P17" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.785</v>
+        <v>0.784</v>
       </c>
       <c r="R17" t="n">
         <v>12.1</v>
       </c>
       <c r="S17" t="n">
-        <v>29.4</v>
+        <v>29.2</v>
       </c>
       <c r="T17" t="n">
-        <v>41.5</v>
+        <v>41.3</v>
       </c>
       <c r="U17" t="n">
         <v>21.2</v>
       </c>
       <c r="V17" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W17" t="n">
         <v>7.1</v>
@@ -3462,16 +3529,16 @@
         <v>4.6</v>
       </c>
       <c r="Z17" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="AA17" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="AB17" t="n">
         <v>98.09999999999999</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -3480,13 +3547,13 @@
         <v>16</v>
       </c>
       <c r="AF17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG17" t="n">
         <v>17</v>
       </c>
       <c r="AH17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI17" t="n">
         <v>17</v>
@@ -3504,19 +3571,19 @@
         <v>23</v>
       </c>
       <c r="AN17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS17" t="n">
         <v>22</v>
@@ -3531,19 +3598,19 @@
         <v>16</v>
       </c>
       <c r="AW17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX17" t="n">
         <v>28</v>
       </c>
       <c r="AY17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ17" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BA17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB17" t="n">
         <v>18</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-4-2008-09</t>
+          <t>2009-02-04</t>
         </is>
       </c>
     </row>
@@ -3578,61 +3645,61 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E18" t="n">
         <v>17</v>
       </c>
       <c r="F18" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G18" t="n">
-        <v>0.354</v>
+        <v>0.362</v>
       </c>
       <c r="H18" t="n">
         <v>48.5</v>
       </c>
       <c r="I18" t="n">
-        <v>36.9</v>
+        <v>37</v>
       </c>
       <c r="J18" t="n">
-        <v>83.8</v>
+        <v>83.7</v>
       </c>
       <c r="K18" t="n">
-        <v>0.441</v>
+        <v>0.442</v>
       </c>
       <c r="L18" t="n">
         <v>5.8</v>
       </c>
       <c r="M18" t="n">
-        <v>17.1</v>
+        <v>16.9</v>
       </c>
       <c r="N18" t="n">
-        <v>0.34</v>
+        <v>0.343</v>
       </c>
       <c r="O18" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="P18" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.771</v>
+        <v>0.772</v>
       </c>
       <c r="R18" t="n">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="S18" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="T18" t="n">
-        <v>42.3</v>
+        <v>42.2</v>
       </c>
       <c r="U18" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="V18" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="W18" t="n">
         <v>6.5</v>
@@ -3650,19 +3717,19 @@
         <v>20.6</v>
       </c>
       <c r="AB18" t="n">
-        <v>98.90000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="AC18" t="n">
-        <v>-3.4</v>
+        <v>-3.3</v>
       </c>
       <c r="AD18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE18" t="n">
         <v>24</v>
       </c>
       <c r="AF18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG18" t="n">
         <v>24</v>
@@ -3671,64 +3738,64 @@
         <v>9</v>
       </c>
       <c r="AI18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ18" t="n">
         <v>6</v>
       </c>
       <c r="AK18" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AL18" t="n">
         <v>21</v>
       </c>
       <c r="AM18" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AN18" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AO18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP18" t="n">
         <v>15</v>
       </c>
       <c r="AQ18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR18" t="n">
         <v>3</v>
       </c>
       <c r="AS18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AV18" t="n">
         <v>15</v>
       </c>
       <c r="AW18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AX18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AY18" t="n">
         <v>30</v>
       </c>
       <c r="AZ18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA18" t="n">
         <v>22</v>
       </c>
       <c r="BB18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BC18" t="n">
         <v>24</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-4-2008-09</t>
+          <t>2009-02-04</t>
         </is>
       </c>
     </row>
@@ -3760,61 +3827,61 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F19" t="n">
         <v>27</v>
       </c>
       <c r="G19" t="n">
-        <v>0.46</v>
+        <v>0.449</v>
       </c>
       <c r="H19" t="n">
         <v>48.6</v>
       </c>
       <c r="I19" t="n">
-        <v>35.5</v>
+        <v>35.3</v>
       </c>
       <c r="J19" t="n">
-        <v>80.09999999999999</v>
+        <v>80.2</v>
       </c>
       <c r="K19" t="n">
-        <v>0.443</v>
+        <v>0.44</v>
       </c>
       <c r="L19" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="M19" t="n">
         <v>20.6</v>
       </c>
       <c r="N19" t="n">
-        <v>0.382</v>
+        <v>0.378</v>
       </c>
       <c r="O19" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="P19" t="n">
-        <v>24.9</v>
+        <v>25.2</v>
       </c>
       <c r="Q19" t="n">
         <v>0.776</v>
       </c>
       <c r="R19" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="S19" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="T19" t="n">
-        <v>40.7</v>
+        <v>40.8</v>
       </c>
       <c r="U19" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="V19" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="W19" t="n">
         <v>6.9</v>
@@ -3823,46 +3890,46 @@
         <v>4.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Z19" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="AA19" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AB19" t="n">
-        <v>98.2</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="AC19" t="n">
-        <v>-2.2</v>
+        <v>-2.8</v>
       </c>
       <c r="AD19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG19" t="n">
         <v>18</v>
       </c>
       <c r="AH19" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AI19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AJ19" t="n">
         <v>15</v>
       </c>
       <c r="AK19" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AM19" t="n">
         <v>6</v>
@@ -3871,7 +3938,7 @@
         <v>7</v>
       </c>
       <c r="AO19" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AP19" t="n">
         <v>14</v>
@@ -3883,7 +3950,7 @@
         <v>14</v>
       </c>
       <c r="AS19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT19" t="n">
         <v>20</v>
@@ -3892,7 +3959,7 @@
         <v>29</v>
       </c>
       <c r="AV19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW19" t="n">
         <v>22</v>
@@ -3901,19 +3968,19 @@
         <v>21</v>
       </c>
       <c r="AY19" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ19" t="n">
         <v>27</v>
       </c>
       <c r="BA19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BB19" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BC19" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-4-2008-09</t>
+          <t>2009-02-04</t>
         </is>
       </c>
     </row>
@@ -3942,52 +4009,52 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E20" t="n">
         <v>28</v>
       </c>
       <c r="F20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G20" t="n">
-        <v>0.609</v>
+        <v>0.622</v>
       </c>
       <c r="H20" t="n">
         <v>48</v>
       </c>
       <c r="I20" t="n">
-        <v>34.9</v>
+        <v>35</v>
       </c>
       <c r="J20" t="n">
-        <v>76.59999999999999</v>
+        <v>76.5</v>
       </c>
       <c r="K20" t="n">
-        <v>0.456</v>
+        <v>0.458</v>
       </c>
       <c r="L20" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="M20" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="N20" t="n">
-        <v>0.388</v>
+        <v>0.39</v>
       </c>
       <c r="O20" t="n">
-        <v>18.5</v>
+        <v>18.2</v>
       </c>
       <c r="P20" t="n">
-        <v>22.8</v>
+        <v>22.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.8120000000000001</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="R20" t="n">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="S20" t="n">
-        <v>28.9</v>
+        <v>29</v>
       </c>
       <c r="T20" t="n">
         <v>38.5</v>
@@ -4011,22 +4078,22 @@
         <v>20.6</v>
       </c>
       <c r="AA20" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AB20" t="n">
-        <v>95.8</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="AC20" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="AD20" t="n">
         <v>30</v>
       </c>
       <c r="AE20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG20" t="n">
         <v>8</v>
@@ -4041,7 +4108,7 @@
         <v>29</v>
       </c>
       <c r="AK20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL20" t="n">
         <v>8</v>
@@ -4050,13 +4117,13 @@
         <v>11</v>
       </c>
       <c r="AN20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO20" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AP20" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AQ20" t="n">
         <v>3</v>
@@ -4074,10 +4141,10 @@
         <v>27</v>
       </c>
       <c r="AV20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX20" t="n">
         <v>22</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-4-2008-09</t>
+          <t>2009-02-04</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E21" t="n">
         <v>21</v>
       </c>
       <c r="F21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G21" t="n">
-        <v>0.438</v>
+        <v>0.447</v>
       </c>
       <c r="H21" t="n">
         <v>48.1</v>
@@ -4151,7 +4218,7 @@
         <v>10.3</v>
       </c>
       <c r="M21" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="N21" t="n">
         <v>0.357</v>
@@ -4163,34 +4230,34 @@
         <v>22.8</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.802</v>
+        <v>0.8</v>
       </c>
       <c r="R21" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="S21" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="T21" t="n">
         <v>42.6</v>
       </c>
       <c r="U21" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="V21" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W21" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X21" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="Y21" t="n">
         <v>5.3</v>
       </c>
       <c r="Z21" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AA21" t="n">
         <v>19.1</v>
@@ -4199,10 +4266,10 @@
         <v>104.3</v>
       </c>
       <c r="AC21" t="n">
-        <v>-2.2</v>
+        <v>-2.1</v>
       </c>
       <c r="AD21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE21" t="n">
         <v>19</v>
@@ -4214,13 +4281,13 @@
         <v>19</v>
       </c>
       <c r="AH21" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AI21" t="n">
         <v>7</v>
       </c>
       <c r="AJ21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK21" t="n">
         <v>28</v>
@@ -4244,7 +4311,7 @@
         <v>7</v>
       </c>
       <c r="AR21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS21" t="n">
         <v>8</v>
@@ -4268,13 +4335,13 @@
         <v>21</v>
       </c>
       <c r="AZ21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA21" t="n">
         <v>29</v>
       </c>
       <c r="BB21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC21" t="n">
         <v>18</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-4-2008-09</t>
+          <t>2009-02-04</t>
         </is>
       </c>
     </row>
@@ -4306,34 +4373,34 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E22" t="n">
         <v>11</v>
       </c>
       <c r="F22" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G22" t="n">
-        <v>0.224</v>
+        <v>0.229</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
       </c>
       <c r="I22" t="n">
-        <v>36.6</v>
+        <v>36.4</v>
       </c>
       <c r="J22" t="n">
-        <v>81.40000000000001</v>
+        <v>81.3</v>
       </c>
       <c r="K22" t="n">
-        <v>0.449</v>
+        <v>0.448</v>
       </c>
       <c r="L22" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="M22" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="N22" t="n">
         <v>0.374</v>
@@ -4342,13 +4409,13 @@
         <v>19.9</v>
       </c>
       <c r="P22" t="n">
-        <v>25.9</v>
+        <v>25.8</v>
       </c>
       <c r="Q22" t="n">
         <v>0.769</v>
       </c>
       <c r="R22" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="S22" t="n">
         <v>31</v>
@@ -4357,7 +4424,7 @@
         <v>43.1</v>
       </c>
       <c r="U22" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="V22" t="n">
         <v>16.7</v>
@@ -4369,22 +4436,22 @@
         <v>4.6</v>
       </c>
       <c r="Y22" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA22" t="n">
         <v>20.9</v>
       </c>
-      <c r="AA22" t="n">
-        <v>21</v>
-      </c>
       <c r="AB22" t="n">
-        <v>97.09999999999999</v>
+        <v>96.8</v>
       </c>
       <c r="AC22" t="n">
-        <v>-6.1</v>
+        <v>-6.2</v>
       </c>
       <c r="AD22" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE22" t="n">
         <v>27</v>
@@ -4402,10 +4469,10 @@
         <v>15</v>
       </c>
       <c r="AJ22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK22" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL22" t="n">
         <v>30</v>
@@ -4417,7 +4484,7 @@
         <v>11</v>
       </c>
       <c r="AO22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP22" t="n">
         <v>8</v>
@@ -4426,13 +4493,13 @@
         <v>15</v>
       </c>
       <c r="AR22" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AS22" t="n">
         <v>11</v>
       </c>
       <c r="AT22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU22" t="n">
         <v>23</v>
@@ -4450,13 +4517,13 @@
         <v>22</v>
       </c>
       <c r="AZ22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BA22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB22" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BC22" t="n">
         <v>26</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-4-2008-09</t>
+          <t>2009-02-04</t>
         </is>
       </c>
     </row>
@@ -4488,46 +4555,46 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E23" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F23" t="n">
         <v>11</v>
       </c>
       <c r="G23" t="n">
-        <v>0.771</v>
+        <v>0.766</v>
       </c>
       <c r="H23" t="n">
         <v>48.1</v>
       </c>
       <c r="I23" t="n">
-        <v>36.5</v>
+        <v>36.3</v>
       </c>
       <c r="J23" t="n">
-        <v>78.8</v>
+        <v>78.7</v>
       </c>
       <c r="K23" t="n">
-        <v>0.463</v>
+        <v>0.461</v>
       </c>
       <c r="L23" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="M23" t="n">
         <v>26.1</v>
       </c>
       <c r="N23" t="n">
-        <v>0.402</v>
+        <v>0.397</v>
       </c>
       <c r="O23" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="P23" t="n">
-        <v>26.8</v>
+        <v>26.9</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.724</v>
+        <v>0.727</v>
       </c>
       <c r="R23" t="n">
         <v>10</v>
@@ -4536,37 +4603,37 @@
         <v>33</v>
       </c>
       <c r="T23" t="n">
-        <v>43.1</v>
+        <v>43</v>
       </c>
       <c r="U23" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="V23" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="W23" t="n">
         <v>7.2</v>
       </c>
       <c r="X23" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y23" t="n">
         <v>3.7</v>
       </c>
       <c r="Z23" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AA23" t="n">
         <v>22.1</v>
       </c>
       <c r="AB23" t="n">
-        <v>102.9</v>
+        <v>102.4</v>
       </c>
       <c r="AC23" t="n">
-        <v>8.6</v>
+        <v>8.1</v>
       </c>
       <c r="AD23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE23" t="n">
         <v>4</v>
@@ -4578,13 +4645,13 @@
         <v>4</v>
       </c>
       <c r="AH23" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AI23" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AJ23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK23" t="n">
         <v>8</v>
@@ -4599,7 +4666,7 @@
         <v>1</v>
       </c>
       <c r="AO23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP23" t="n">
         <v>6</v>
@@ -4608,7 +4675,7 @@
         <v>30</v>
       </c>
       <c r="AR23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AS23" t="n">
         <v>1</v>
@@ -4626,7 +4693,7 @@
         <v>15</v>
       </c>
       <c r="AX23" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AY23" t="n">
         <v>3</v>
@@ -4641,7 +4708,7 @@
         <v>7</v>
       </c>
       <c r="BC23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-4-2008-09</t>
+          <t>2009-02-04</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>0.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="AE24" t="n">
         <v>17</v>
@@ -4769,7 +4836,7 @@
         <v>14</v>
       </c>
       <c r="AK24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL24" t="n">
         <v>29</v>
@@ -4799,7 +4866,7 @@
         <v>9</v>
       </c>
       <c r="AU24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV24" t="n">
         <v>24</v>
@@ -4814,7 +4881,7 @@
         <v>15</v>
       </c>
       <c r="AZ24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA24" t="n">
         <v>18</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-4-2008-09</t>
+          <t>2009-02-04</t>
         </is>
       </c>
     </row>
@@ -4852,37 +4919,37 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E25" t="n">
         <v>26</v>
       </c>
       <c r="F25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G25" t="n">
-        <v>0.553</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="H25" t="n">
         <v>48.2</v>
       </c>
       <c r="I25" t="n">
-        <v>38.6</v>
+        <v>38.5</v>
       </c>
       <c r="J25" t="n">
-        <v>77.8</v>
+        <v>77.5</v>
       </c>
       <c r="K25" t="n">
-        <v>0.495</v>
+        <v>0.496</v>
       </c>
       <c r="L25" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M25" t="n">
-        <v>17.1</v>
+        <v>16.9</v>
       </c>
       <c r="N25" t="n">
-        <v>0.384</v>
+        <v>0.387</v>
       </c>
       <c r="O25" t="n">
         <v>21</v>
@@ -4897,10 +4964,10 @@
         <v>9.699999999999999</v>
       </c>
       <c r="S25" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="T25" t="n">
-        <v>41.6</v>
+        <v>41.5</v>
       </c>
       <c r="U25" t="n">
         <v>21.8</v>
@@ -4909,13 +4976,13 @@
         <v>16.3</v>
       </c>
       <c r="W25" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="X25" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Y25" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Z25" t="n">
         <v>20.4</v>
@@ -4924,19 +4991,19 @@
         <v>22.6</v>
       </c>
       <c r="AB25" t="n">
-        <v>104.7</v>
+        <v>104.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="AD25" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AE25" t="n">
         <v>13</v>
       </c>
       <c r="AF25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG25" t="n">
         <v>12</v>
@@ -4954,10 +5021,10 @@
         <v>1</v>
       </c>
       <c r="AL25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AM25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AN25" t="n">
         <v>5</v>
@@ -4966,16 +5033,16 @@
         <v>5</v>
       </c>
       <c r="AP25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AQ25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR25" t="n">
         <v>27</v>
       </c>
       <c r="AS25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT25" t="n">
         <v>14</v>
@@ -4987,7 +5054,7 @@
         <v>29</v>
       </c>
       <c r="AW25" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AX25" t="n">
         <v>13</v>
@@ -4996,7 +5063,7 @@
         <v>6</v>
       </c>
       <c r="AZ25" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA25" t="n">
         <v>7</v>
@@ -5005,7 +5072,7 @@
         <v>4</v>
       </c>
       <c r="BC25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-4-2008-09</t>
+          <t>2009-02-04</t>
         </is>
       </c>
     </row>
@@ -5049,70 +5116,70 @@
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="J26" t="n">
-        <v>78.3</v>
+        <v>78.5</v>
       </c>
       <c r="K26" t="n">
-        <v>0.463</v>
+        <v>0.459</v>
       </c>
       <c r="L26" t="n">
         <v>7.3</v>
       </c>
       <c r="M26" t="n">
-        <v>19.1</v>
+        <v>19.4</v>
       </c>
       <c r="N26" t="n">
-        <v>0.38</v>
+        <v>0.378</v>
       </c>
       <c r="O26" t="n">
-        <v>19.4</v>
+        <v>19.2</v>
       </c>
       <c r="P26" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.766</v>
+        <v>0.761</v>
       </c>
       <c r="R26" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="S26" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="T26" t="n">
-        <v>40.8</v>
+        <v>41</v>
       </c>
       <c r="U26" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="V26" t="n">
         <v>12.9</v>
       </c>
       <c r="W26" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="X26" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y26" t="n">
         <v>3.7</v>
       </c>
       <c r="Z26" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="AA26" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="AB26" t="n">
-        <v>99.09999999999999</v>
+        <v>98.7</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="AD26" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="AE26" t="n">
         <v>7</v>
@@ -5127,13 +5194,13 @@
         <v>11</v>
       </c>
       <c r="AI26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ26" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AK26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL26" t="n">
         <v>10</v>
@@ -5142,16 +5209,16 @@
         <v>12</v>
       </c>
       <c r="AN26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO26" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AP26" t="n">
         <v>13</v>
       </c>
       <c r="AQ26" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AR26" t="n">
         <v>1</v>
@@ -5160,31 +5227,31 @@
         <v>30</v>
       </c>
       <c r="AT26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU26" t="n">
         <v>21</v>
       </c>
       <c r="AV26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW26" t="n">
         <v>21</v>
       </c>
       <c r="AX26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY26" t="n">
         <v>2</v>
       </c>
       <c r="AZ26" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BA26" t="n">
         <v>11</v>
       </c>
       <c r="BB26" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BC26" t="n">
         <v>5</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-4-2008-09</t>
+          <t>2009-02-04</t>
         </is>
       </c>
     </row>
@@ -5294,28 +5361,28 @@
         <v>-9.800000000000001</v>
       </c>
       <c r="AD27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE27" t="n">
         <v>27</v>
       </c>
       <c r="AF27" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AG27" t="n">
         <v>28</v>
       </c>
       <c r="AH27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL27" t="n">
         <v>18</v>
@@ -5324,13 +5391,13 @@
         <v>14</v>
       </c>
       <c r="AN27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO27" t="n">
         <v>6</v>
       </c>
       <c r="AP27" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AQ27" t="n">
         <v>4</v>
@@ -5348,16 +5415,16 @@
         <v>25</v>
       </c>
       <c r="AV27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AX27" t="n">
         <v>27</v>
       </c>
       <c r="AY27" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ27" t="n">
         <v>30</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-4-2008-09</t>
+          <t>2009-02-04</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>3.1</v>
       </c>
       <c r="AD28" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AE28" t="n">
         <v>5</v>
@@ -5491,7 +5558,7 @@
         <v>1</v>
       </c>
       <c r="AI28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ28" t="n">
         <v>18</v>
@@ -5515,7 +5582,7 @@
         <v>30</v>
       </c>
       <c r="AQ28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR28" t="n">
         <v>30</v>
@@ -5539,7 +5606,7 @@
         <v>23</v>
       </c>
       <c r="AY28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ28" t="n">
         <v>1</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-4-2008-09</t>
+          <t>2009-02-04</t>
         </is>
       </c>
     </row>
@@ -5580,25 +5647,25 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E29" t="n">
         <v>19</v>
       </c>
       <c r="F29" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G29" t="n">
-        <v>0.373</v>
+        <v>0.38</v>
       </c>
       <c r="H29" t="n">
         <v>48.3</v>
       </c>
       <c r="I29" t="n">
-        <v>36.1</v>
+        <v>36</v>
       </c>
       <c r="J29" t="n">
-        <v>78.59999999999999</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="K29" t="n">
         <v>0.459</v>
@@ -5616,16 +5683,16 @@
         <v>19.1</v>
       </c>
       <c r="P29" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.825</v>
+        <v>0.824</v>
       </c>
       <c r="R29" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="S29" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="T29" t="n">
         <v>38.9</v>
@@ -5634,31 +5701,31 @@
         <v>21.7</v>
       </c>
       <c r="V29" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="W29" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="X29" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y29" t="n">
         <v>4.4</v>
       </c>
       <c r="Z29" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="AA29" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB29" t="n">
-        <v>97.40000000000001</v>
+        <v>97.2</v>
       </c>
       <c r="AC29" t="n">
-        <v>-2.9</v>
+        <v>-2.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE29" t="n">
         <v>21</v>
@@ -5673,25 +5740,25 @@
         <v>19</v>
       </c>
       <c r="AI29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ29" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AK29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL29" t="n">
         <v>19</v>
       </c>
       <c r="AM29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN29" t="n">
         <v>10</v>
       </c>
       <c r="AO29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP29" t="n">
         <v>23</v>
@@ -5715,13 +5782,13 @@
         <v>8</v>
       </c>
       <c r="AW29" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AX29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ29" t="n">
         <v>4</v>
@@ -5733,7 +5800,7 @@
         <v>21</v>
       </c>
       <c r="BC29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-4-2008-09</t>
+          <t>2009-02-04</t>
         </is>
       </c>
     </row>
@@ -5840,37 +5907,37 @@
         <v>2.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AE30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG30" t="n">
         <v>14</v>
       </c>
       <c r="AH30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM30" t="n">
         <v>26</v>
       </c>
       <c r="AN30" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AO30" t="n">
         <v>3</v>
@@ -5879,22 +5946,22 @@
         <v>3</v>
       </c>
       <c r="AQ30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS30" t="n">
         <v>25</v>
       </c>
       <c r="AT30" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AU30" t="n">
         <v>1</v>
       </c>
       <c r="AV30" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW30" t="n">
         <v>2</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-4-2008-09</t>
+          <t>2009-02-04</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E31" t="n">
         <v>10</v>
       </c>
       <c r="F31" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G31" t="n">
-        <v>0.204</v>
+        <v>0.208</v>
       </c>
       <c r="H31" t="n">
         <v>48.1</v>
@@ -5962,43 +6029,43 @@
         <v>36.2</v>
       </c>
       <c r="J31" t="n">
-        <v>81.59999999999999</v>
+        <v>81.5</v>
       </c>
       <c r="K31" t="n">
-        <v>0.443</v>
+        <v>0.444</v>
       </c>
       <c r="L31" t="n">
         <v>5</v>
       </c>
       <c r="M31" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="N31" t="n">
-        <v>0.319</v>
+        <v>0.322</v>
       </c>
       <c r="O31" t="n">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="P31" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.756</v>
+        <v>0.755</v>
       </c>
       <c r="R31" t="n">
         <v>11.9</v>
       </c>
       <c r="S31" t="n">
-        <v>27.9</v>
+        <v>28.1</v>
       </c>
       <c r="T31" t="n">
-        <v>39.8</v>
+        <v>40</v>
       </c>
       <c r="U31" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="V31" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="W31" t="n">
         <v>7.5</v>
@@ -6013,16 +6080,16 @@
         <v>20.4</v>
       </c>
       <c r="AA31" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="AB31" t="n">
-        <v>94</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="AC31" t="n">
-        <v>-7.6</v>
+        <v>-7.2</v>
       </c>
       <c r="AD31" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
@@ -6037,7 +6104,7 @@
         <v>29</v>
       </c>
       <c r="AI31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ31" t="n">
         <v>9</v>
@@ -6064,28 +6131,28 @@
         <v>22</v>
       </c>
       <c r="AR31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS31" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AT31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV31" t="n">
         <v>12</v>
       </c>
       <c r="AW31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX31" t="n">
         <v>26</v>
       </c>
       <c r="AY31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ31" t="n">
         <v>11</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-4-2008-09</t>
+          <t>2009-02-04</t>
         </is>
       </c>
     </row>
